--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.7195353511937</v>
+        <v>0.4279076666666666</v>
       </c>
       <c r="N2">
-        <v>19.7195353511937</v>
+        <v>1.283723</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0198304262462706</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0198304262462706</v>
       </c>
       <c r="Q2">
-        <v>16.52725922351256</v>
+        <v>0.4301513291988888</v>
       </c>
       <c r="R2">
-        <v>16.52725922351256</v>
+        <v>3.871361962789999</v>
       </c>
       <c r="S2">
-        <v>0.06442540789927378</v>
+        <v>0.001432723363201831</v>
       </c>
       <c r="T2">
-        <v>0.06442540789927378</v>
+        <v>0.00143272336320183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1160701072289</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>10.1160701072289</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>19.7195353511937</v>
+        <v>0.296848</v>
       </c>
       <c r="N3">
-        <v>19.7195353511937</v>
+        <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01375675835913107</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01375675835913107</v>
       </c>
       <c r="Q3">
-        <v>199.4842020946541</v>
+        <v>0.2984044730133333</v>
       </c>
       <c r="R3">
-        <v>199.4842020946541</v>
+        <v>2.68564025712</v>
       </c>
       <c r="S3">
-        <v>0.7776153877423023</v>
+        <v>0.0009939084948693848</v>
       </c>
       <c r="T3">
-        <v>0.7776153877423023</v>
+        <v>0.0009939084948693846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.357849177158858</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.357849177158858</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.02750762140831738</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.02750762140831738</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.7195353511937</v>
+        <v>0.07261233333333333</v>
       </c>
       <c r="N4">
-        <v>19.7195353511937</v>
+        <v>0.217837</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.003365056606611278</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.003365056606611278</v>
       </c>
       <c r="Q4">
-        <v>7.056619499379677</v>
+        <v>0.07299306400111111</v>
       </c>
       <c r="R4">
-        <v>7.056619499379677</v>
+        <v>0.6569375760099999</v>
       </c>
       <c r="S4">
-        <v>0.02750762140831738</v>
+        <v>0.0002431211088917136</v>
       </c>
       <c r="T4">
-        <v>0.02750762140831738</v>
+        <v>0.0002431211088917135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,796 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.69705664204216</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>1.69705664204216</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.1304515829501065</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.1304515829501065</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.7195353511937</v>
+        <v>20.78097133333333</v>
       </c>
       <c r="N5">
-        <v>19.7195353511937</v>
+        <v>62.342914</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9630477587879871</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9630477587879871</v>
       </c>
       <c r="Q5">
-        <v>33.46516844572844</v>
+        <v>20.88993289302444</v>
       </c>
       <c r="R5">
-        <v>33.46516844572844</v>
+        <v>188.00939603722</v>
       </c>
       <c r="S5">
-        <v>0.1304515829501065</v>
+        <v>0.06957898971809534</v>
       </c>
       <c r="T5">
-        <v>0.1304515829501065</v>
+        <v>0.06957898971809533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.25983933333333</v>
+      </c>
+      <c r="H6">
+        <v>30.779518</v>
+      </c>
+      <c r="I6">
+        <v>0.7373940889775011</v>
+      </c>
+      <c r="J6">
+        <v>0.737394088977501</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.283723</v>
+      </c>
+      <c r="O6">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P6">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q6">
+        <v>4.390263909501555</v>
+      </c>
+      <c r="R6">
+        <v>39.512375185514</v>
+      </c>
+      <c r="S6">
+        <v>0.01462283909590424</v>
+      </c>
+      <c r="T6">
+        <v>0.01462283909590424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>10.25983933333333</v>
+      </c>
+      <c r="H7">
+        <v>30.779518</v>
+      </c>
+      <c r="I7">
+        <v>0.7373940889775011</v>
+      </c>
+      <c r="J7">
+        <v>0.737394088977501</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.296848</v>
+      </c>
+      <c r="N7">
+        <v>0.890544</v>
+      </c>
+      <c r="O7">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P7">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q7">
+        <v>3.045612786421334</v>
+      </c>
+      <c r="R7">
+        <v>27.410515077792</v>
+      </c>
+      <c r="S7">
+        <v>0.01014415229751508</v>
+      </c>
+      <c r="T7">
+        <v>0.01014415229751508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.25983933333333</v>
+      </c>
+      <c r="H8">
+        <v>30.779518</v>
+      </c>
+      <c r="I8">
+        <v>0.7373940889775011</v>
+      </c>
+      <c r="J8">
+        <v>0.737394088977501</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.217837</v>
+      </c>
+      <c r="O8">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P8">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q8">
+        <v>0.7449908736184445</v>
+      </c>
+      <c r="R8">
+        <v>6.704917862566</v>
+      </c>
+      <c r="S8">
+        <v>0.002481372850789845</v>
+      </c>
+      <c r="T8">
+        <v>0.002481372850789844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.25983933333333</v>
+      </c>
+      <c r="H9">
+        <v>30.779518</v>
+      </c>
+      <c r="I9">
+        <v>0.7373940889775011</v>
+      </c>
+      <c r="J9">
+        <v>0.737394088977501</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N9">
+        <v>62.342914</v>
+      </c>
+      <c r="O9">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P9">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q9">
+        <v>213.2094270706058</v>
+      </c>
+      <c r="R9">
+        <v>1918.884843635452</v>
+      </c>
+      <c r="S9">
+        <v>0.710145724733292</v>
+      </c>
+      <c r="T9">
+        <v>0.7101457247332918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.383875</v>
+      </c>
+      <c r="H10">
+        <v>1.151625</v>
+      </c>
+      <c r="I10">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J10">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.283723</v>
+      </c>
+      <c r="O10">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P10">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q10">
+        <v>0.1642630555416667</v>
+      </c>
+      <c r="R10">
+        <v>1.478367499875</v>
+      </c>
+      <c r="S10">
+        <v>0.0005471179592162787</v>
+      </c>
+      <c r="T10">
+        <v>0.0005471179592162787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.383875</v>
+      </c>
+      <c r="H11">
+        <v>1.151625</v>
+      </c>
+      <c r="I11">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J11">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.296848</v>
+      </c>
+      <c r="N11">
+        <v>0.890544</v>
+      </c>
+      <c r="O11">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P11">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q11">
+        <v>0.113952526</v>
+      </c>
+      <c r="R11">
+        <v>1.025572734</v>
+      </c>
+      <c r="S11">
+        <v>0.0003795465344722357</v>
+      </c>
+      <c r="T11">
+        <v>0.0003795465344722357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.383875</v>
+      </c>
+      <c r="H12">
+        <v>1.151625</v>
+      </c>
+      <c r="I12">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J12">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.217837</v>
+      </c>
+      <c r="O12">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P12">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q12">
+        <v>0.02787405945833334</v>
+      </c>
+      <c r="R12">
+        <v>0.250866535125</v>
+      </c>
+      <c r="S12">
+        <v>9.284131769999956E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.284131769999956E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.383875</v>
+      </c>
+      <c r="H13">
+        <v>1.151625</v>
+      </c>
+      <c r="I13">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="J13">
+        <v>0.02758982345723265</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N13">
+        <v>62.342914</v>
+      </c>
+      <c r="O13">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P13">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q13">
+        <v>7.977295370583334</v>
+      </c>
+      <c r="R13">
+        <v>71.79565833525001</v>
+      </c>
+      <c r="S13">
+        <v>0.02657031764584414</v>
+      </c>
+      <c r="T13">
+        <v>0.02657031764584414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.264687</v>
+      </c>
+      <c r="H14">
+        <v>6.794061</v>
+      </c>
+      <c r="I14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.283723</v>
+      </c>
+      <c r="O14">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P14">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q14">
+        <v>0.9690769299003332</v>
+      </c>
+      <c r="R14">
+        <v>8.721692369103</v>
+      </c>
+      <c r="S14">
+        <v>0.003227745827948256</v>
+      </c>
+      <c r="T14">
+        <v>0.003227745827948256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.264687</v>
+      </c>
+      <c r="H15">
+        <v>6.794061</v>
+      </c>
+      <c r="I15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.296848</v>
+      </c>
+      <c r="N15">
+        <v>0.890544</v>
+      </c>
+      <c r="O15">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P15">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q15">
+        <v>0.6722678065759999</v>
+      </c>
+      <c r="R15">
+        <v>6.050410259184</v>
+      </c>
+      <c r="S15">
+        <v>0.002239151032274371</v>
+      </c>
+      <c r="T15">
+        <v>0.002239151032274371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.264687</v>
+      </c>
+      <c r="H16">
+        <v>6.794061</v>
+      </c>
+      <c r="I16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.217837</v>
+      </c>
+      <c r="O16">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P16">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q16">
+        <v>0.1644442073396667</v>
+      </c>
+      <c r="R16">
+        <v>1.479997866057</v>
+      </c>
+      <c r="S16">
+        <v>0.0005477213292297203</v>
+      </c>
+      <c r="T16">
+        <v>0.0005477213292297203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.264687</v>
+      </c>
+      <c r="H17">
+        <v>6.794061</v>
+      </c>
+      <c r="I17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N17">
+        <v>62.342914</v>
+      </c>
+      <c r="O17">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P17">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q17">
+        <v>47.06239562597266</v>
+      </c>
+      <c r="R17">
+        <v>423.561560633754</v>
+      </c>
+      <c r="S17">
+        <v>0.1567527266907557</v>
+      </c>
+      <c r="T17">
+        <v>0.1567527266907557</v>
       </c>
     </row>
   </sheetData>
